--- a/Data.xlsx
+++ b/Data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="19">
   <si>
     <t>ApplicationID</t>
   </si>
@@ -70,7 +70,7 @@
     <t>PH_000008</t>
   </si>
   <si>
-    <t>PH_000009</t>
+    <t>Pradyumn Patil</t>
   </si>
 </sst>
 </file>
@@ -78,10 +78,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -92,6 +92,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -106,17 +114,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -146,8 +145,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -161,14 +184,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -176,16 +214,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -193,29 +223,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -224,13 +231,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,13 +251,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -269,13 +341,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -287,145 +425,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,21 +436,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -496,17 +481,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -528,6 +519,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -541,148 +541,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1018,7 +1018,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -1027,6 +1027,7 @@
     <col min="2" max="2" width="26.4285714285714" customWidth="1"/>
     <col min="3" max="3" width="19.5714285714286" customWidth="1"/>
     <col min="5" max="5" width="9.14285714285714" style="1"/>
+    <col min="6" max="6" width="55.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1069,7 +1070,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1085,8 +1086,12 @@
       <c r="E3" s="2">
         <v>83</v>
       </c>
+      <c r="F3" t="str">
+        <f>_xlfn.CONCAT("images/",A3,".jpg")</f>
+        <v>images/PH_000002.jpg</v>
+      </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1102,8 +1107,12 @@
       <c r="E4" s="2">
         <v>83</v>
       </c>
+      <c r="F4" t="str">
+        <f>_xlfn.CONCAT("images/",A4,".jpg")</f>
+        <v>images/PH_000003.jpg</v>
+      </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1119,8 +1128,12 @@
       <c r="E5" s="2">
         <v>83</v>
       </c>
+      <c r="F5" t="str">
+        <f>_xlfn.CONCAT("images/",A5,".jpg")</f>
+        <v>images/PH_000004.jpg</v>
+      </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -1136,8 +1149,12 @@
       <c r="E6" s="2">
         <v>83</v>
       </c>
+      <c r="F6" t="str">
+        <f>_xlfn.CONCAT("images/",A6,".jpg")</f>
+        <v>images/PH_000005.jpg</v>
+      </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1153,8 +1170,12 @@
       <c r="E7" s="2">
         <v>83</v>
       </c>
+      <c r="F7" t="str">
+        <f>_xlfn.CONCAT("images/",A7,".jpg")</f>
+        <v>images/PH_000006.jpg</v>
+      </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1170,13 +1191,17 @@
       <c r="E8" s="2">
         <v>83</v>
       </c>
+      <c r="F8" t="str">
+        <f>_xlfn.CONCAT("images/",A8,".jpg")</f>
+        <v>images/PH_000007.jpg</v>
+      </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
@@ -1187,23 +1212,13 @@
       <c r="E9" s="2">
         <v>83</v>
       </c>
+      <c r="F9" t="str">
+        <f>_xlfn.CONCAT("images/",A9,".jpg")</f>
+        <v>images/PH_000008.jpg</v>
+      </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="2">
-        <v>83</v>
-      </c>
+    <row r="10" spans="5:5">
+      <c r="E10" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
